--- a/DÍA 4/Formulas+Matriciales.xlsx
+++ b/DÍA 4/Formulas+Matriciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\Cursos Udemy\ExcelTotal\DÍA 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB8AE79-668B-4DE8-8453-515DBF115768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5C515-DBCC-4AC3-88FF-4BD9B4C4C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4315D6B6-341C-4438-9F87-504645EF22AF}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Precio Unitario</t>
   </si>
@@ -95,16 +95,29 @@
   </si>
   <si>
     <t>PARA LAS VERSIONES ANTERIORES A OFFICE 365 O 2021 PRIMERO ELEGIR TODAS LAS CELDAS , LUEGO MULTIPPLCIAR POR DOS Y AL ÚLTIMO APRETAR LAS TECLAS CONTROL + SHIFT(mayúscula) + ENTER</t>
+  </si>
+  <si>
+    <t>no necesito este cálculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uno las dos matrices </t>
+  </si>
+  <si>
+    <t>{SUMA(H4:H7*I4:I7)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uso la fórmula: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +139,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,8 +160,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +192,18 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,25 +290,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,16 +635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE68ECC8-5C64-4FFB-AEF5-7E555BAE7BF2}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:H13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="2.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.44140625" customWidth="1"/>
     <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.6640625" customWidth="1"/>
@@ -628,7 +683,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="31.8" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>158</v>
       </c>
@@ -648,7 +703,9 @@
       <c r="I3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="6" t="s">
         <v>3</v>
@@ -674,7 +731,10 @@
       <c r="I4" s="9">
         <v>8522</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10">
+        <f>H4*I4</f>
+        <v>63915</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="11">
         <v>1</v>
@@ -705,7 +765,10 @@
       <c r="I5" s="13">
         <v>7565</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5:J7" si="0">H5*I5</f>
+        <v>31924.3</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="11">
         <v>2</v>
@@ -735,7 +798,10 @@
       <c r="I6" s="9">
         <v>6325</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>35483.25</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="11">
         <v>3</v>
@@ -765,7 +831,10 @@
       <c r="I7" s="15">
         <v>4499</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>35182.18</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11">
         <v>4</v>
@@ -785,7 +854,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <f>SUM(J4:J7)</f>
+        <v>166504.72999999998</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="11">
         <v>5</v>
@@ -803,7 +875,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="10"/>
       <c r="K9" s="1"/>
@@ -817,15 +891,10 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16" cm="1">
+        <f t="array" ref="H10">SUM(H4:H7*I4:I7)</f>
+        <v>166504.72999999998</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -838,15 +907,14 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="1"/>
+    <row r="11" spans="2:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="G11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="11">
@@ -859,13 +927,6 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -879,13 +940,6 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -915,13 +969,15 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -929,17 +985,20 @@
       <c r="M15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11" cm="1">
+        <f t="array" ref="N15">AVERAGE(IF(M4:M13&gt;0,M4:M13,""))</f>
+        <v>9.5</v>
+      </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -947,17 +1006,20 @@
       <c r="M16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="11" cm="1">
+        <f t="array" ref="N16">AVERAGE(IF(M4:M13&lt;0,M4:M13,""))</f>
+        <v>-5.166666666666667</v>
+      </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -967,13 +1029,13 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1015,8 +1077,9 @@
       <c r="O20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B10:H13"/>
+  <mergeCells count="2">
+    <mergeCell ref="B15:H18"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
